--- a/biology/Zoologie/Colibri_flavescent/Colibri_flavescent.xlsx
+++ b/biology/Zoologie/Colibri_flavescent/Colibri_flavescent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boissonneaua flavescens
 Le Colibri flavescent (Boissonneaua flavescens) est une espèce de colibris (famille des Trochilidae) présente en Colombie, en Équateur et au Venezuela.
@@ -512,17 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Un colibri flavescent vers Manizales, en Colombie. Aout 2023.
 			Une rencontre de deux colibris vers le même endroit. Aout 2023.
 			Mêmes colibris.
-Mensurations
-Cet oiseau mesure 11,5 cm de longueur en moyenne, dont 1,5 cm de bec, pour une masse moyenne avoisinant 8 g[1].
-Plumage
-Cet oiseau a pour couleur dominante un vert profond, iridescent. La tête est souvent plus scintillante que les autres parties du corps et le ventre est souvent mêlé de beige-roux. Le dessous des ailes est roux chamoisé. Les deux plumes centrales de la queue sont d’une couleur bronze, les autres sont roux chamoisé, aux extrémités plus sombres. Le bec est droit, de couleur noire.
-Vocalisations</t>
+</t>
         </is>
       </c>
     </row>
@@ -547,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce habite les forêts tropicales et subtropicales humides de montagne. On la trouve aussi sur les sites d'anciennes forêts fortement dégradées.
+          <t>Mensurations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau mesure 11,5 cm de longueur en moyenne, dont 1,5 cm de bec, pour une masse moyenne avoisinant 8 g.
 </t>
         </is>
       </c>
@@ -578,10 +594,82 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Plumage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau a pour couleur dominante un vert profond, iridescent. La tête est souvent plus scintillante que les autres parties du corps et le ventre est souvent mêlé de beige-roux. Le dessous des ailes est roux chamoisé. Les deux plumes centrales de la queue sont d’une couleur bronze, les autres sont roux chamoisé, aux extrémités plus sombres. Le bec est droit, de couleur noire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Colibri_flavescent</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colibri_flavescent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce habite les forêts tropicales et subtropicales humides de montagne. On la trouve aussi sur les sites d'anciennes forêts fortement dégradées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colibri_flavescent</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colibri_flavescent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Boissonneaua flavescens flavescens (Loddiges, 1832) ;
